--- a/biology/Zoologie/Bembecia/Bembecia.xlsx
+++ b/biology/Zoologie/Bembecia/Bembecia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bembecia regroupe plusieurs dizaines d'espèces d'insectes lépidoptères (papillons) de la famille des Sesiidae, aux ailes semi-transparentes.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bembecia abromeiti  Kallies &amp; Riefenstahl, 2000
 Bembecia albanensis (Rebel, 1918)
@@ -524,7 +538,7 @@
 Bembecia auricaudata (Bartel, 1912)
 Bembecia barbara (Bartel, 1912)
 Bembecia bestianaeli (Capuse, 1973)
-Bembecia bohatschi (Püngeler, [1905])
+Bembecia bohatschi (Püngeler, )
 Bembecia buxea  Gorbunov, 1989
 Bembecia ceiformis (Staudinger, 1881)
 Bembecia elena  Spatenka &amp; Bartsch, 2010
@@ -564,7 +578,7 @@
 Bembecia stiziformis tenebrosa (Püngeler, 1914)
 Bembecia stiziformis belouchistanica Špatenka, 2001
 Bembecia strandi (Kozhantshikov, 1936)
-Bembecia tancrei (Püngeler, [1905])
+Bembecia tancrei (Püngeler, )
 Bembecia tshatkalensis  Spatenka &amp; Kallies, 2006
 Bembecia tshimgana (Sheljuzhko, 1935)
 Bembecia turanica (Erschoff, 1874)
@@ -601,7 +615,7 @@
 Bembecia hymenopteriformis (Bellier, 1860)
 Bembecia uroceriformis (Treitschke, 1834)
 Bembecia uroceriformis uroceriformis (Treitschke, 1834)
-Bembecia uroceriformis armoricana (Oberthür, [1907])
+Bembecia uroceriformis armoricana (Oberthür, )
 Bembecia blanka  Špatenka, 2001
 Bembecia fokidensis  Toševski, 1991
 Bembecia gegamica  Gorbunov, 1991
@@ -627,7 +641,7 @@
 Bembecia sinensis (Hampson, 1919)
 Bembecia ussuriensis (Gorbunov &amp; Arita, 1995)
 Bembecia hofmanni  Kallies &amp; Špatenka, 2003
-Bembecia fortis  Diakonoff, [1968]
+Bembecia fortis  Diakonoff, 
 Bembecia balkis (Le Cerf, 1937)
 Bembecia balkis balkis (Le Cerf, 1937)
 Bembecia balkis atrocaudata Wiltshire, 1986</t>
